--- a/diagram_data/2013_diagram_data.xlsx
+++ b/diagram_data/2013_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,1098 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P5_Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P8_Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P14_Detert et al._2013_ASQ_Voice Flows to and around Leaders.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P28_Detert et al._2013_ASQ_Voice Flows to and around Leaders.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P6_Dorado_2013_OrgStudies_Small Groups as Context for Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P13_Gawer &amp; Phillips_2013_OrgStudies_Institutional Work as Logics Shift.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P8_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P18_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F3_P22_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P8_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P10_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P5_Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P16_Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P7_Metiu &amp; Rothbard_2013_OrgSci_Task Bubbles, Artifacts Shared Emotion and Mutual focus of attention.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P8_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F3_P13_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P10_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F3_P22_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P16_Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.png</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P18_Cohen_2013_OrgSci_Assembling Jobs.png</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P16_Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P20_Mazmanian_2013_AMJ_Avoiding the Trap of Constant Connectivity.png</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P13_Neeley_2013_OrgSci_Language Matters.png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P11_Pache &amp; Santos_2013_AMJ_Inside the Hybrid Organization.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P9_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P6_Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.png</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
